--- a/SearchCourse/src/test/resources/ExcelData/scenario_outline_wb.xlsx
+++ b/SearchCourse/src/test/resources/ExcelData/scenario_outline_wb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\SearchCourse\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99F0AF-C518-4A4B-8586-1C086E47053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9FF88-9678-402B-8295-70F659E5CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6861AAB4-721E-43CB-84C9-0D20927B197A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Python</t>
   </si>
@@ -45,20 +45,34 @@
     <t>Java</t>
   </si>
   <si>
-    <t>Edureka</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>Google</t>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>sara@gmail.com</t>
+  </si>
+  <si>
+    <t>sneha@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,25 +465,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7DDD2-DA6A-4003-AB9D-82144BCCDDB3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2345678901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4536456345</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6A01E3ED-E370-46F0-9E35-A4FD5D8906DE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D8233F6B-BEB8-4130-A556-C52B3C765F2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SearchCourse/src/test/resources/ExcelData/scenario_outline_wb.xlsx
+++ b/SearchCourse/src/test/resources/ExcelData/scenario_outline_wb.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\SearchCourse\src\test\resources\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9FF88-9678-402B-8295-70F659E5CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8BC3936F-B1A1-4FE7-9364-B47C7D287353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6861AAB4-721E-43CB-84C9-0D20927B197A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6861AAB4-721E-43CB-84C9-0D20927B197A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9E9D31-9BD5-4BB0-945B-802382DEB564}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -467,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7DDD2-DA6A-4003-AB9D-82144BCCDDB3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
